--- a/Medication_Mapping.xlsx
+++ b/Medication_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC3A8A3-D330-A742-9624-3AB62754C7D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D382F3-292A-E943-B2B7-609C2FA7DE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16660" xr2:uid="{9C9E1FCF-EEF9-F04E-9E73-E6A30D3CBA9D}"/>
+    <workbookView xWindow="-28680" yWindow="-12980" windowWidth="28040" windowHeight="16660" xr2:uid="{9C9E1FCF-EEF9-F04E-9E73-E6A30D3CBA9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="278">
   <si>
     <t>Medication_Name</t>
   </si>
@@ -849,6 +849,27 @@
   </si>
   <si>
     <t>ICS_or_ICS_LABA</t>
+  </si>
+  <si>
+    <t>Immunological agents, other</t>
+  </si>
+  <si>
+    <t>^Mepolizumab</t>
+  </si>
+  <si>
+    <t>Reslizumab</t>
+  </si>
+  <si>
+    <t>^Reslizumab</t>
+  </si>
+  <si>
+    <t>Benralizumab</t>
+  </si>
+  <si>
+    <t>benralizumab</t>
+  </si>
+  <si>
+    <t>Dupilumab</t>
   </si>
 </sst>
 </file>
@@ -906,6 +927,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7C58FBA-A0A8-B74F-9211-9A69C898D15D}" name="Table1" displayName="Table1" ref="A1:H1048576" totalsRowShown="0">
   <autoFilter ref="A1:H1048576" xr:uid="{A1146775-B0CC-AA40-A67E-48FDA88218EA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H125">
+    <sortCondition ref="A1:A1048576"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{04065131-7C55-7344-BC8F-EB88153F37F9}" name="Medication_Name"/>
     <tableColumn id="2" xr3:uid="{AE66914C-B697-C142-85A4-8CD3BC3A4945}" name="Medication_Biobank_Folder"/>
@@ -1217,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3C60A-551D-654E-9BF7-44B4A11FFF42}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1555,19 +1579,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" t="s">
-        <v>269</v>
+        <v>188</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1578,16 +1596,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>269</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -1598,16 +1619,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1618,16 +1639,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1638,7 +1659,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -1647,7 +1668,7 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1658,22 +1679,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" t="s">
-        <v>269</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1687,13 +1702,19 @@
         <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>269</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1707,10 +1728,13 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1721,62 +1745,59 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" t="s">
-        <v>269</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>269</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1787,16 +1808,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1807,16 +1828,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1827,16 +1848,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1847,16 +1868,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1867,7 +1888,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -1876,7 +1897,7 @@
         <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1887,7 +1908,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -1896,7 +1917,7 @@
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1907,7 +1928,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -1916,7 +1937,7 @@
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -1927,7 +1948,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -1936,7 +1957,7 @@
         <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -1947,22 +1968,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" t="s">
-        <v>269</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -1976,13 +1991,19 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" t="s">
+        <v>269</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -1993,16 +2014,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -2013,16 +2034,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -2033,16 +2054,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" t="s">
-        <v>102</v>
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -2053,22 +2074,22 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" t="s">
-        <v>105</v>
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
+        <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -2076,33 +2097,33 @@
         <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F41" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="F42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -2113,16 +2134,16 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
         <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -2133,16 +2154,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -2153,22 +2174,16 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" t="s">
-        <v>269</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -2182,13 +2197,19 @@
         <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" t="s">
+        <v>269</v>
       </c>
       <c r="F46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -2202,13 +2223,13 @@
         <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" t="s">
-        <v>119</v>
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -2219,16 +2240,16 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" t="s">
-        <v>35</v>
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>119</v>
       </c>
       <c r="F48" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -2239,16 +2260,16 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -2259,16 +2280,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -2279,16 +2300,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
@@ -2299,16 +2320,16 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -2319,7 +2340,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B53" t="s">
         <v>75</v>
@@ -2328,7 +2349,7 @@
         <v>35</v>
       </c>
       <c r="F53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -2339,7 +2360,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
         <v>75</v>
@@ -2348,7 +2369,7 @@
         <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -2359,13 +2380,16 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>75</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -2376,13 +2400,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>277</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="F56" t="s">
-        <v>136</v>
+        <v>277</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
@@ -2393,16 +2417,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
@@ -2413,16 +2434,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
@@ -2433,36 +2451,36 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="F59" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F60" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
@@ -2473,22 +2491,16 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
-      </c>
-      <c r="D61" t="s">
-        <v>51</v>
-      </c>
-      <c r="E61" t="s">
-        <v>269</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
@@ -2499,16 +2511,16 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
@@ -2519,7 +2531,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B63" t="s">
         <v>49</v>
@@ -2528,13 +2540,13 @@
         <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="E63" t="s">
         <v>269</v>
       </c>
       <c r="F63" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
@@ -2545,7 +2557,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B64" t="s">
         <v>53</v>
@@ -2554,7 +2566,7 @@
         <v>54</v>
       </c>
       <c r="F64" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
@@ -2565,42 +2577,42 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>50</v>
+      </c>
+      <c r="D65" t="s">
+        <v>150</v>
       </c>
       <c r="E65" t="s">
         <v>269</v>
       </c>
       <c r="F65" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66" t="s">
-        <v>269</v>
+        <v>54</v>
       </c>
       <c r="F66" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
@@ -2611,16 +2623,19 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>72</v>
+      </c>
+      <c r="E67" t="s">
+        <v>269</v>
       </c>
       <c r="F67" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
@@ -2631,7 +2646,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -2643,7 +2658,7 @@
         <v>269</v>
       </c>
       <c r="F68" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
@@ -2654,13 +2669,16 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
@@ -2671,76 +2689,76 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B70" t="s">
-        <v>57</v>
-      </c>
-      <c r="D70" t="s">
-        <v>163</v>
+        <v>22</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" t="s">
+        <v>269</v>
       </c>
       <c r="F70" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F71" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" t="s">
-        <v>31</v>
+        <v>57</v>
+      </c>
+      <c r="D72" t="s">
+        <v>163</v>
       </c>
       <c r="F72" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
@@ -2751,16 +2769,16 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
@@ -2771,36 +2789,36 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="F76" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
@@ -2811,16 +2829,16 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F77" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
@@ -2831,7 +2849,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
@@ -2840,47 +2858,47 @@
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
@@ -2891,56 +2909,56 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B82" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="C82" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="F82" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
@@ -2951,16 +2969,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="F84" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
@@ -2971,45 +2989,33 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
-      </c>
-      <c r="C85" t="s">
-        <v>194</v>
-      </c>
-      <c r="D85" t="s">
-        <v>119</v>
+        <v>271</v>
       </c>
       <c r="F85" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>50</v>
-      </c>
-      <c r="D86" t="s">
-        <v>51</v>
-      </c>
-      <c r="E86" t="s">
-        <v>269</v>
+        <v>17</v>
       </c>
       <c r="F86" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
@@ -3020,59 +3026,65 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B87" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C88" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D88" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="F88" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B89" t="s">
         <v>49</v>
       </c>
       <c r="C89" t="s">
-        <v>105</v>
+        <v>50</v>
+      </c>
+      <c r="D89" t="s">
+        <v>51</v>
+      </c>
+      <c r="E89" t="s">
+        <v>269</v>
       </c>
       <c r="F89" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
@@ -3083,36 +3095,39 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
-      </c>
-      <c r="D90" t="s">
-        <v>201</v>
+        <v>53</v>
+      </c>
+      <c r="C90" t="s">
+        <v>54</v>
       </c>
       <c r="F90" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C91" t="s">
-        <v>44</v>
+        <v>200</v>
+      </c>
+      <c r="D91" t="s">
+        <v>201</v>
       </c>
       <c r="F91" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
@@ -3123,56 +3138,56 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B92" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="C92" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="F92" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B93" t="s">
-        <v>211</v>
-      </c>
-      <c r="C93" t="s">
-        <v>209</v>
+        <v>22</v>
+      </c>
+      <c r="D93" t="s">
+        <v>201</v>
       </c>
       <c r="F93" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
@@ -3183,56 +3198,56 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B95" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="C95" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F95" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B96" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C96" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F96" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B97" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="C97" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="F97" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
@@ -3243,16 +3258,16 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="F98" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
@@ -3263,16 +3278,16 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B99" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C99" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F99" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
@@ -3283,16 +3298,16 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="F100" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
@@ -3303,82 +3318,79 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B101" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>229</v>
-      </c>
-      <c r="D101" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B102" t="s">
-        <v>57</v>
+        <v>220</v>
       </c>
       <c r="C102" t="s">
-        <v>229</v>
-      </c>
-      <c r="D102" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="F102" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
       </c>
       <c r="H102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G103" t="b">
         <v>0</v>
       </c>
       <c r="H103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B104" t="s">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="C104" t="s">
-        <v>221</v>
+        <v>229</v>
+      </c>
+      <c r="D104" t="s">
+        <v>119</v>
       </c>
       <c r="F104" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G104" t="b">
         <v>0</v>
@@ -3389,56 +3401,59 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>229</v>
+      </c>
+      <c r="D105" t="s">
+        <v>119</v>
       </c>
       <c r="F105" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G105" t="b">
         <v>0</v>
       </c>
       <c r="H105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
       </c>
       <c r="H106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="F107" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G107" t="b">
         <v>0</v>
@@ -3449,16 +3464,16 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F108" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G108" t="b">
         <v>0</v>
@@ -3469,16 +3484,16 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G109" t="b">
         <v>0</v>
@@ -3489,16 +3504,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="B110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C110" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="G110" t="b">
         <v>0</v>
@@ -3509,39 +3521,36 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B111" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="F111" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G111" t="b">
         <v>0</v>
       </c>
       <c r="H111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
-      </c>
-      <c r="D112" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F112" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G112" t="b">
         <v>0</v>
@@ -3552,59 +3561,56 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G113" t="b">
         <v>0</v>
       </c>
       <c r="H113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B114" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="C114" t="s">
-        <v>50</v>
-      </c>
-      <c r="E114" t="s">
-        <v>269</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G114" t="b">
         <v>0</v>
       </c>
       <c r="H114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B115" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="C115" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G115" t="b">
         <v>0</v>
@@ -3615,59 +3621,62 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>254</v>
+        <v>29</v>
       </c>
       <c r="B116" t="s">
-        <v>57</v>
+        <v>27</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
       </c>
       <c r="D116" t="s">
-        <v>254</v>
+        <v>29</v>
       </c>
       <c r="F116" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B117" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F117" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G117" t="b">
         <v>0</v>
       </c>
       <c r="H117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B118" t="s">
         <v>49</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" t="s">
-        <v>261</v>
+        <v>50</v>
+      </c>
+      <c r="E118" t="s">
+        <v>269</v>
       </c>
       <c r="F118" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G118" t="b">
         <v>0</v>
@@ -3678,13 +3687,16 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>53</v>
+      </c>
+      <c r="C119" t="s">
+        <v>54</v>
       </c>
       <c r="F119" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G119" t="b">
         <v>0</v>
@@ -3695,41 +3707,121 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B120" t="s">
-        <v>22</v>
-      </c>
-      <c r="C120" t="s">
-        <v>200</v>
+        <v>57</v>
+      </c>
+      <c r="D120" t="s">
+        <v>254</v>
       </c>
       <c r="F120" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>258</v>
+      </c>
+      <c r="B121" t="s">
+        <v>259</v>
+      </c>
+      <c r="C121" t="s">
+        <v>35</v>
+      </c>
+      <c r="F121" t="s">
+        <v>260</v>
+      </c>
+      <c r="G121" t="b">
+        <v>0</v>
+      </c>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>261</v>
+      </c>
+      <c r="B122" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" t="s">
+        <v>261</v>
+      </c>
+      <c r="F122" t="s">
+        <v>262</v>
+      </c>
+      <c r="G122" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>263</v>
+      </c>
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123" t="s">
+        <v>264</v>
+      </c>
+      <c r="G123" t="b">
+        <v>0</v>
+      </c>
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>265</v>
+      </c>
+      <c r="B124" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" t="s">
+        <v>200</v>
+      </c>
+      <c r="F124" t="s">
+        <v>266</v>
+      </c>
+      <c r="G124" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>267</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B125" t="s">
         <v>22</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C125" t="s">
         <v>200</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F125" t="s">
         <v>268</v>
       </c>
-      <c r="G121" t="b">
-        <v>0</v>
-      </c>
-      <c r="H121" t="b">
+      <c r="G125" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" t="b">
         <v>0</v>
       </c>
     </row>
